--- a/data/geodemographics/Dictionary-lsoa-data-clean.xlsx
+++ b/data/geodemographics/Dictionary-lsoa-data-clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://theuniversityofliverpool-my.sharepoint.com/personal/carmenca_liverpool_ac_uk/Documents/r4ps/data/geodemographics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8FA513-BFBE-F348-B3F3-AD95D7682FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1620B123-DD75-D04A-8A4F-5407747F9AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC503B6-0A6F-8148-821C-F98B933CD5D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10600" windowWidth="14120" windowHeight="7340" xr2:uid="{F0F076B5-194F-CA4A-9838-CD4E1DBFB5DE}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="14520" windowHeight="17140" xr2:uid="{F0F076B5-194F-CA4A-9838-CD4E1DBFB5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,363 @@
   </si>
   <si>
     <t>HouseholdOtherMulti</t>
+  </si>
+  <si>
+    <t>Ethnic Group;White (%);2011</t>
+  </si>
+  <si>
+    <t>Ethnic Group;Mixed/multiple ethnic groups (%);2011</t>
+  </si>
+  <si>
+    <t>Ethnic Group;Asian/Asian British (%);2011</t>
+  </si>
+  <si>
+    <t>Ethnic Group;Black/African/Caribbean/Black British (%);2011</t>
+  </si>
+  <si>
+    <t>Ethnic Group;Other ethnic group (%);2011</t>
+  </si>
+  <si>
+    <t>Ethnic Group;BAME (%);2011</t>
+  </si>
+  <si>
+    <t>EthnicWhite</t>
+  </si>
+  <si>
+    <t>EthnicAsianAsianBritish</t>
+  </si>
+  <si>
+    <t>EthnicMixedMulti</t>
+  </si>
+  <si>
+    <t>EthnicBlackAfricanCaribbeanBlackBritish</t>
+  </si>
+  <si>
+    <t>EthnicOther</t>
+  </si>
+  <si>
+    <t>EthnicBAME</t>
+  </si>
+  <si>
+    <t>Country of Birth;% United Kingdom;2011</t>
+  </si>
+  <si>
+    <t>Country of Birth;% Not United Kingdom;2011</t>
+  </si>
+  <si>
+    <t>CountryBirthUK</t>
+  </si>
+  <si>
+    <t>CountryBirthNotUK</t>
+  </si>
+  <si>
+    <t>Household Language;% of households with at least one person aged 16 or over with English as a main language;2011</t>
+  </si>
+  <si>
+    <t>Household Language;% of households where no people aged 16 or over have English as a main language;2011</t>
+  </si>
+  <si>
+    <t>HouseholdNotEnglishLanguage</t>
+  </si>
+  <si>
+    <t>Religion;Christian (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Buddhist (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Hindu (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Jewish (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Muslim (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Sikh (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Other religion (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;No religion (%);2011</t>
+  </si>
+  <si>
+    <t>Religion;Religion not stated (%);2011</t>
+  </si>
+  <si>
+    <t>ReligionChristian</t>
+  </si>
+  <si>
+    <t>ReligionBuddhist</t>
+  </si>
+  <si>
+    <t>ReligionHindu</t>
+  </si>
+  <si>
+    <t>ReligionJewish</t>
+  </si>
+  <si>
+    <t>ReligionMuslim</t>
+  </si>
+  <si>
+    <t>ReligionSikh</t>
+  </si>
+  <si>
+    <t>ReligionOther</t>
+  </si>
+  <si>
+    <t>ReligionNone</t>
+  </si>
+  <si>
+    <t>Tenure;Owned outright (%);2011</t>
+  </si>
+  <si>
+    <t>Tenure;Owned with a mortgage or loan (%);2011</t>
+  </si>
+  <si>
+    <t>Tenure;Social rented (%);2011</t>
+  </si>
+  <si>
+    <t>Tenure;Private rented (%);2011</t>
+  </si>
+  <si>
+    <t>TenureOwnedOutright</t>
+  </si>
+  <si>
+    <t>TenureOwnedMortgageLoan</t>
+  </si>
+  <si>
+    <t>TenureSocialRent</t>
+  </si>
+  <si>
+    <t>TenurePrivateRent</t>
+  </si>
+  <si>
+    <t>Dwelling type;Household spaces with at least one usual resident (%);2011</t>
+  </si>
+  <si>
+    <t>Dwelling type;Household spaces with no usual residents (%);2011</t>
+  </si>
+  <si>
+    <t>Dwelling type;Whole house or bungalow: Detached (%);2011</t>
+  </si>
+  <si>
+    <t>Dwelling type;Whole house or bungalow: Semi-detached (%);2011</t>
+  </si>
+  <si>
+    <t>Dwelling type;Whole house or bungalow: Terraced (including end-terrace) (%);2011</t>
+  </si>
+  <si>
+    <t>Dwelling type;Flat, maisonette or apartment (%);2011</t>
+  </si>
+  <si>
+    <t>DwellingWithNoUsualResidents</t>
+  </si>
+  <si>
+    <t>DwellingWithUsualResidents</t>
+  </si>
+  <si>
+    <t>DwllingDetached</t>
+  </si>
+  <si>
+    <t>DwellingSemiDetached</t>
+  </si>
+  <si>
+    <t>DwellingTerraced</t>
+  </si>
+  <si>
+    <t>DwellingFlat</t>
+  </si>
+  <si>
+    <t>House Prices;Median Price (£);2011</t>
+  </si>
+  <si>
+    <t>House Prices;Sales;2011</t>
+  </si>
+  <si>
+    <t>Adults in Employment;% of households with no adults in employment: With dependent children;2011</t>
+  </si>
+  <si>
+    <t>Lone Parents;Lone parent not in employment %;2011</t>
+  </si>
+  <si>
+    <t>Economic Activity;Economically active: Full-time student %;2011</t>
+  </si>
+  <si>
+    <t>Economic Activity;Employment Rate;2011</t>
+  </si>
+  <si>
+    <t>Economic Activity;Unemployment Rate;2011</t>
+  </si>
+  <si>
+    <t>HousePriceMedian</t>
+  </si>
+  <si>
+    <t>HouseSales</t>
+  </si>
+  <si>
+    <t>HouseholdNoAdultInEmploymentWithDependentChildren</t>
+  </si>
+  <si>
+    <t>LoneParentNotInEmployment</t>
+  </si>
+  <si>
+    <t>FullTimeStudent</t>
+  </si>
+  <si>
+    <t>EmploymentRate</t>
+  </si>
+  <si>
+    <t>UnemploymentRate</t>
+  </si>
+  <si>
+    <t>Qualifications;% No qualifications;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Level 1 qualifications;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Level 2 qualifications;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Apprenticeship;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Level 3 qualifications;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Level 4 qualifications and above;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Highest level of qualification: Other qualifications;2011</t>
+  </si>
+  <si>
+    <t>Qualifications;% Schoolchildren and full-time students: Age 18 and over;2011</t>
+  </si>
+  <si>
+    <t>QualificationNone</t>
+  </si>
+  <si>
+    <t>QualificationLevel1</t>
+  </si>
+  <si>
+    <t>QualificationLevel2</t>
+  </si>
+  <si>
+    <t>QualificationApprenticeship</t>
+  </si>
+  <si>
+    <t>QualificationLevel3</t>
+  </si>
+  <si>
+    <t>QualificationOther</t>
+  </si>
+  <si>
+    <t>QualificationSchoolchildrenAndFullTimeStudentsOver18</t>
+  </si>
+  <si>
+    <t>QualificationLevel4OrAbove</t>
+  </si>
+  <si>
+    <t>Health;Day-to-day activities limited a lot (%);2011</t>
+  </si>
+  <si>
+    <t>Health;Day-to-day activities limited a little (%);2011</t>
+  </si>
+  <si>
+    <t>Health;Day-to-day activities not limited (%);2011</t>
+  </si>
+  <si>
+    <t>Health;Very good or Good health (%);2011</t>
+  </si>
+  <si>
+    <t>Health;Fair health (%);2011</t>
+  </si>
+  <si>
+    <t>Health;Bad or Very Bad health (%);2011</t>
+  </si>
+  <si>
+    <t>HealthDayToDayLimitedALot</t>
+  </si>
+  <si>
+    <t>HealthDayToDayLimitedALittle</t>
+  </si>
+  <si>
+    <t>HealthDayToDayNotLimited</t>
+  </si>
+  <si>
+    <t>HelathVeryGoodOrGood</t>
+  </si>
+  <si>
+    <t>HealthFair</t>
+  </si>
+  <si>
+    <t>HealthBadOrVeryBad</t>
+  </si>
+  <si>
+    <t>Car or van availability;No cars or vans in household (%);2011</t>
+  </si>
+  <si>
+    <t>Car or van availability;1 car or van in household (%);2011</t>
+  </si>
+  <si>
+    <t>Car or van availability;2 cars or vans in household (%);2011</t>
+  </si>
+  <si>
+    <t>Car or van availability;3 cars or vans in household (%);2011</t>
+  </si>
+  <si>
+    <t>Car or van availability;4 or more cars or vans in household (%);2011</t>
+  </si>
+  <si>
+    <t>Car or van availability;Cars per household;2011</t>
+  </si>
+  <si>
+    <t>HouseholdNoCarOrVan</t>
+  </si>
+  <si>
+    <t>HouseholdOneCarOrVan</t>
+  </si>
+  <si>
+    <t>HouseholdTwoCarOrVan</t>
+  </si>
+  <si>
+    <t>HouseholdThreeCarOrVan</t>
+  </si>
+  <si>
+    <t>HouseholdFourOrMoreCarOrVan</t>
+  </si>
+  <si>
+    <t>CarsPerHousehold</t>
+  </si>
+  <si>
+    <t>Public Transport Accessibility Levels (2014);Average Score;</t>
+  </si>
+  <si>
+    <t>PublicTransportAccessibilityAverageScore2014</t>
+  </si>
+  <si>
+    <t>Household Income, 2011/12;Mean Annual Household Income estimate (£)</t>
+  </si>
+  <si>
+    <t>Household Income, 2011/12;Median Annual Household Income estimate (£)</t>
+  </si>
+  <si>
+    <t>HouseholdMedianIncome</t>
+  </si>
+  <si>
+    <t>HouseholdMeanIncome</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ReligionNotStated</t>
+  </si>
+  <si>
+    <t>HouseholdEnglishLanguage</t>
   </si>
 </sst>
 </file>
@@ -489,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66282539-594F-C54F-8F4B-7096E492179F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +857,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -516,63 +873,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -580,15 +958,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -596,44 +977,675 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
